--- a/AutomationFramework/excel_logs/hardware_test_hw_component_transceiver_test_hw_component_mfg_date_logs.xlsx
+++ b/AutomationFramework/excel_logs/hardware_test_hw_component_transceiver_test_hw_component_mfg_date_logs.xlsx
@@ -518,7 +518,7 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;
-&lt;rpc-reply message-id="urn:uuid:9a0799ce-2f49-4bdf-8b0c-0737d4a65d3b"
+&lt;rpc-reply message-id="urn:uuid:3499a37d-c50e-4b7c-b70a-d86a6c9a663f"
  xmlns:ncx="http://netconfcentral.org/ns/yuma-ncx"
  ncx:last-modified="2020-10-21T19:34:55Z" ncx:etag="830"
  xmlns="urn:ietf:params:xml:ns:netconf:base:1.0"&gt;
